--- a/registration_data.xlsx
+++ b/registration_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>612203144</t>
-        </is>
+      <c r="A2" t="n">
+        <v>612203144</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,9 +479,57 @@
           <t>payalss2004@gmail.com</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>9673095937</t>
+      <c r="E2" t="n">
+        <v>9673095937</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>612203154</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sakshi</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Khanorkar</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sakshikhanorkar15@gmail.com</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>612203142</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yash</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pawar</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>yashpawar123@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1234567890</t>
         </is>
       </c>
     </row>

--- a/registration_data.xlsx
+++ b/registration_data.xlsx
@@ -1,37 +1,144 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+  <si>
+    <t>MIS</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>612203127</t>
+  </si>
+  <si>
+    <t>Payal</t>
+  </si>
+  <si>
+    <t>Sakshi</t>
+  </si>
+  <si>
+    <t>Yash</t>
+  </si>
+  <si>
+    <t>Smruti</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Sankpal</t>
+  </si>
+  <si>
+    <t>Khanorkar</t>
+  </si>
+  <si>
+    <t>Pawar</t>
+  </si>
+  <si>
+    <t>Pachpute</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>payalss2004@gmail.com</t>
+  </si>
+  <si>
+    <t>sakshikhanorkar15@gmail.com</t>
+  </si>
+  <si>
+    <t>yashpawar123@gmail.com</t>
+  </si>
+  <si>
+    <t>pachputesj22.comp@coeptech.ac.in</t>
+  </si>
+  <si>
+    <t>habs@jbask.com</t>
+  </si>
+  <si>
+    <t>abc@mail.com</t>
+  </si>
+  <si>
+    <t>1a@mail</t>
+  </si>
+  <si>
+    <t>email@mail</t>
+  </si>
+  <si>
+    <t>testmail@mail.com</t>
+  </si>
+  <si>
+    <t>xyz2@gmail.com</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>smruti.pachpute1404@gmail.com</t>
+  </si>
+  <si>
+    <t>+91 80804 57383</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +153,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,120 +469,354 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MIS</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
         <v>612203144</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Payal</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sankpal</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>payalss2004@gmail.com</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
         <v>9673095937</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:5">
+      <c r="A3">
         <v>612203154</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sakshi</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Khanorkar</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sakshikhanorkar15@gmail.com</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
         <v>1234567890</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>612203142</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Yash</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Pawar</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>yashpawar123@gmail.com</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1234567890</t>
-        </is>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>612203142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>612203127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>8080457383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1654654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1234</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>54364684561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1234</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>54364684561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1234</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>54364684561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1234</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>54364684561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1234</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>54364684561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1234</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>54364684561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1234</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>1234</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1234</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>1234</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>1234</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>8080457383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>1234</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>1654654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/registration_data.xlsx
+++ b/registration_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>MIS</t>
   </si>
@@ -31,7 +31,13 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>612203127</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>112103127</t>
+  </si>
+  <si>
+    <t>612203217</t>
   </si>
   <si>
     <t>Payal</t>
@@ -49,12 +55,15 @@
     <t>xyz</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>jabsdi</t>
+  </si>
+  <si>
     <t>Sankpal</t>
   </si>
   <si>
@@ -76,6 +85,12 @@
     <t>P</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>jkhw</t>
+  </si>
+  <si>
     <t>payalss2004@gmail.com</t>
   </si>
   <si>
@@ -112,7 +127,16 @@
     <t>smruti.pachpute1404@gmail.com</t>
   </si>
   <si>
+    <t>admin@sms.com</t>
+  </si>
+  <si>
     <t>+91 80804 57383</t>
+  </si>
+  <si>
+    <t>1654654</t>
+  </si>
+  <si>
+    <t>987654321</t>
   </si>
 </sst>
 </file>
@@ -470,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,13 +522,13 @@
         <v>612203144</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>9673095937</v>
@@ -515,13 +539,13 @@
         <v>612203154</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1234567890</v>
@@ -532,13 +556,13 @@
         <v>612203142</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1234567890</v>
@@ -549,13 +573,13 @@
         <v>612203127</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>8080457383</v>
@@ -566,13 +590,13 @@
         <v>1234</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>1654654</v>
@@ -583,13 +607,13 @@
         <v>1234</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>54364684561</v>
@@ -600,13 +624,13 @@
         <v>1234</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>54364684561</v>
@@ -617,13 +641,13 @@
         <v>1234</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>54364684561</v>
@@ -634,13 +658,13 @@
         <v>1234</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>54364684561</v>
@@ -651,13 +675,13 @@
         <v>1234</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>54364684561</v>
@@ -668,13 +692,13 @@
         <v>1234</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>54364684561</v>
@@ -685,13 +709,13 @@
         <v>1234</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>1234</v>
@@ -702,13 +726,13 @@
         <v>1234</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>1234</v>
@@ -719,13 +743,13 @@
         <v>1234</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>1234</v>
@@ -736,13 +760,13 @@
         <v>1234</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>1234</v>
@@ -753,13 +777,13 @@
         <v>1234</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>1234</v>
@@ -770,13 +794,13 @@
         <v>1234</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>8080457383</v>
@@ -787,33 +811,101 @@
         <v>1234</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>1654654</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>5</v>
+      <c r="A20">
+        <v>612203127</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>1234</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
